--- a/upload_files/CV1__JL1_-_Oracle.xlsx
+++ b/upload_files/CV1__JL1_-_Oracle.xlsx
@@ -433,6 +433,15 @@
     <t>key performance indicators : 1</t>
   </si>
   <si>
+    <t>database : 1</t>
+  </si>
+  <si>
+    <t>oracle : 11</t>
+  </si>
+  <si>
+    <t>rman : 1</t>
+  </si>
+  <si>
     <t>oracle rac : 2</t>
   </si>
   <si>
@@ -442,49 +451,40 @@
     <t>rac : 1</t>
   </si>
   <si>
-    <t>database : 1</t>
-  </si>
-  <si>
     <t>linux : 1</t>
   </si>
   <si>
-    <t>oracle : 11</t>
-  </si>
-  <si>
-    <t>rman : 1</t>
-  </si>
-  <si>
     <t>administration : 2</t>
   </si>
   <si>
     <t>72.72</t>
   </si>
   <si>
+    <t>strategy : 1</t>
+  </si>
+  <si>
     <t>process : 1</t>
   </si>
   <si>
-    <t>strategy : 1</t>
+    <t>design : 1</t>
+  </si>
+  <si>
+    <t>business strategy : 1</t>
   </si>
   <si>
     <t>linux : 2</t>
   </si>
   <si>
-    <t>business strategy : 1</t>
+    <t>management : 1</t>
+  </si>
+  <si>
+    <t>tools : 1</t>
   </si>
   <si>
     <t>ad : 1</t>
   </si>
   <si>
     <t>infrastructure : 1</t>
-  </si>
-  <si>
-    <t>management : 1</t>
-  </si>
-  <si>
-    <t>design : 1</t>
-  </si>
-  <si>
-    <t>tools : 1</t>
   </si>
   <si>
     <t>47.61</t>
